--- a/data/fractionation/test_fract_adjust/220817 Batch 122 Water_Yr_Summary_mod.xlsx
+++ b/data/fractionation/test_fract_adjust/220817 Batch 122 Water_Yr_Summary_mod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Banfield\WaterYear\SIP\data\fractionation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Banfield\WaterYear\SIP\data\fractionation\test_fract_adjust\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D493E32-00CC-458E-9BB8-8364352D8139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1832CD4-D62F-407A-82C7-97A289F3FDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="1" r:id="rId1"/>
@@ -1663,7 +1663,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1672,7 +1672,7 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1986,21 +1986,21 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" style="59" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" style="137" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7265625" style="59" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.26953125" style="60" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.23046875" style="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.23046875" style="137" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.69140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.69140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.23046875" style="60" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" style="60" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="59" t="s">
         <v>219</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="59" t="s">
         <v>221</v>
       </c>
@@ -2016,8 +2016,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="138" t="s">
         <v>177</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="143">
         <f>'Tube Loading'!F29</f>
         <v>2018</v>
@@ -2079,7 +2079,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="143">
         <f>'Tube Loading'!F30</f>
         <v>2023</v>
@@ -2109,7 +2109,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="143">
         <f>'Tube Loading'!F31</f>
         <v>2028</v>
@@ -2139,7 +2139,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="143">
         <f>'Tube Loading'!F32</f>
         <v>2046</v>
@@ -2169,7 +2169,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="143">
         <f>'Tube Loading'!F33</f>
         <v>2049</v>
@@ -2199,7 +2199,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="143">
         <f>'Tube Loading'!F34</f>
         <v>2052</v>
@@ -2229,7 +2229,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="143">
         <f>'Tube Loading'!F35</f>
         <v>2033</v>
@@ -2262,7 +2262,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="143">
         <f>'Tube Loading'!F36</f>
         <v>2038</v>
@@ -2292,7 +2292,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="143">
         <f>'Tube Loading'!F37</f>
         <v>2043</v>
@@ -2316,13 +2316,13 @@
       </c>
       <c r="H13" s="101">
         <f>Summary!AB26</f>
-        <v>49.098093722096166</v>
+        <v>48.999625774905695</v>
       </c>
       <c r="I13" s="101">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="143">
         <f>'Tube Loading'!F38</f>
         <v>2055</v>
@@ -2352,7 +2352,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="143">
         <f>'Tube Loading'!F39</f>
         <v>2058</v>
@@ -2382,7 +2382,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="143">
         <f>'Tube Loading'!F40</f>
         <v>2061</v>
@@ -2412,7 +2412,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="16"/>
       <c r="B17" s="143"/>
       <c r="C17" s="143"/>
@@ -2421,9 +2421,9 @@
       <c r="H17" s="101"/>
       <c r="I17" s="101"/>
     </row>
-    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="59" t="s">
         <v>236</v>
       </c>
@@ -2442,19 +2442,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.54296875" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.53515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.53515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.53515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.53515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.53515625" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
         <v>34</v>
       </c>
@@ -2479,7 +2479,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="41">
         <v>1</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>-13.63998868</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="41">
         <v>2</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>-13.63998868</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="41">
         <v>3</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="41">
         <v>4</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="35">
         <v>5</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="35">
         <v>6</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="35">
         <v>7</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="35">
         <v>8</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="35">
         <v>9</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="35">
         <v>10</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="35">
         <v>11</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="35">
         <v>12</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <v>13</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <v>14</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <v>15</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <v>16</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="41">
         <v>17</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="41">
         <v>18</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <v>19</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="41">
         <v>20</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="35">
         <v>21</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="35">
         <v>22</v>
       </c>
@@ -3071,19 +3071,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.54296875" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.53515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.53515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.53515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.53515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.53515625" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
         <v>34</v>
       </c>
@@ -3108,7 +3108,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="35">
         <v>1</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>-13.63998868</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="35">
         <v>2</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>-13.63998868</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="35">
         <v>3</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="35">
         <v>4</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="35">
         <v>5</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="35">
         <v>6</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="41">
         <v>7</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <v>8</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <v>9</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <v>10</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <v>11</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <v>12</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <v>13</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <v>14</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="35">
         <v>15</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="35">
         <v>16</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="35">
         <v>17</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="35">
         <v>18</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="35">
         <v>19</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="35">
         <v>20</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="35">
         <v>21</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="35">
         <v>22</v>
       </c>
@@ -3700,20 +3700,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.53515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.53515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.53515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.53515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.53515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.53515625" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
         <v>34</v>
       </c>
@@ -3738,7 +3738,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="35">
         <v>1</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>-13.63998868</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="35">
         <v>2</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>-13.63998868</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="35">
         <v>3</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="35">
         <v>4</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="35">
         <v>5</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="35">
         <v>6</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="35">
         <v>7</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="35">
         <v>8</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="47">
         <v>9</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="47">
         <v>10</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="47">
         <v>11</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="47">
         <v>12</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="47">
         <v>13</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="47">
         <v>14</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="47">
         <v>15</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="47">
         <v>16</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="35">
         <v>17</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="35">
         <v>18</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="35">
         <v>19</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="35">
         <v>20</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="35">
         <v>21</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="35">
         <v>22</v>
       </c>
@@ -4330,19 +4330,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.54296875" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.53515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.53515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.53515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.53515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.53515625" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
         <v>34</v>
       </c>
@@ -4367,7 +4367,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="35">
         <v>1</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>-13.63998868</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="35">
         <v>2</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>-13.63998868</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="41">
         <v>3</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="41">
         <v>4</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="41">
         <v>5</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="41">
         <v>6</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="41">
         <v>7</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <v>8</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <v>9</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <v>10</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="35">
         <v>11</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="35">
         <v>12</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="35">
         <v>13</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="35">
         <v>14</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="35">
         <v>15</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="35">
         <v>16</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="35">
         <v>17</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="35">
         <v>18</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <v>19</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="41">
         <v>20</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <v>21</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="41">
         <v>22</v>
       </c>
@@ -4959,19 +4959,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.54296875" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.53515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.53515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.53515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.53515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.53515625" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
         <v>34</v>
       </c>
@@ -4996,7 +4996,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="41">
         <v>1</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>-13.63998868</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="41">
         <v>2</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>-13.63998868</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="41">
         <v>3</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="41">
         <v>4</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="35">
         <v>5</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="35">
         <v>6</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="35">
         <v>7</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="35">
         <v>8</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="35">
         <v>9</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="35">
         <v>10</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="35">
         <v>11</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="35">
         <v>12</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <v>13</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <v>14</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <v>15</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <v>16</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="41">
         <v>17</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="41">
         <v>18</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <v>19</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="41">
         <v>20</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="35">
         <v>21</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="35">
         <v>22</v>
       </c>
@@ -5588,19 +5588,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.54296875" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.53515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.53515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.53515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.53515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.53515625" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
         <v>34</v>
       </c>
@@ -5625,7 +5625,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="35">
         <v>1</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>-13.63998868</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="35">
         <v>2</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>-13.63998868</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="35">
         <v>3</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="35">
         <v>4</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="35">
         <v>5</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="35">
         <v>6</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="41">
         <v>7</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <v>8</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <v>9</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <v>10</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <v>11</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <v>12</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <v>13</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <v>14</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="35">
         <v>15</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="35">
         <v>16</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="35">
         <v>17</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="35">
         <v>18</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="35">
         <v>19</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="35">
         <v>20</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="35">
         <v>21</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="35">
         <v>22</v>
       </c>
@@ -6217,18 +6217,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.53515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.53515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.53515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.53515625" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
         <v>34</v>
       </c>
@@ -6253,7 +6253,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>-13.63998868</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>-13.63998868</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="47">
         <v>9</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="47">
         <v>10</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="47">
         <v>11</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="47">
         <v>12</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="47">
         <v>13</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="47">
         <v>14</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="47">
         <v>15</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="47">
         <v>16</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="16">
         <v>17</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="16">
         <v>18</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="16">
         <v>19</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="16">
         <v>20</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="16">
         <v>21</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="16">
         <v>22</v>
       </c>
@@ -6757,18 +6757,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.53515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.53515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.53515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.53515625" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
         <v>34</v>
       </c>
@@ -6793,7 +6793,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="35">
         <v>1</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>-13.63998868</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="35">
         <v>2</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>-13.63998868</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="41">
         <v>3</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="41">
         <v>4</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="41">
         <v>5</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="41">
         <v>6</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="41">
         <v>7</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <v>8</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <v>9</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <v>10</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="35">
         <v>11</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="35">
         <v>12</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="35">
         <v>13</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="35">
         <v>14</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="35">
         <v>15</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="35">
         <v>16</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="35">
         <v>17</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="35">
         <v>18</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <v>19</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="41">
         <v>20</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <v>21</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="41">
         <v>22</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16">
         <v>23</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="16">
         <v>24</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="47">
         <v>25</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="47">
         <v>26</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="47">
         <v>27</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="47">
         <v>28</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="47">
         <v>29</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="47">
         <v>30</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="47">
         <v>31</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="47">
         <v>32</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="16">
         <v>33</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="16">
         <v>34</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>35</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>36</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>37</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>38</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>39</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>40</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="47">
         <v>41</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="47">
         <v>42</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="47">
         <v>43</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="47">
         <v>44</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="47">
         <v>45</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="47">
         <v>46</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="47">
         <v>47</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="47">
         <v>48</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>49</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>50</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>51</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>52</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>53</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="16">
         <v>54</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="16">
         <v>55</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16">
         <v>56</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="47">
         <v>57</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="47">
         <v>58</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="47">
         <v>59</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="47">
         <v>60</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="47">
         <v>61</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="47">
         <v>62</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="47">
         <v>63</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="47">
         <v>64</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="16">
         <v>65</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="16">
         <v>66</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="16">
         <v>67</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="16">
         <v>68</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="16">
         <v>69</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="16">
         <v>70</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="16">
         <v>71</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="47">
         <v>72</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="47">
         <v>73</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="47">
         <v>74</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="47">
         <v>75</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="47">
         <v>76</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="47">
         <v>77</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="47">
         <v>78</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="47">
         <v>79</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="47">
         <v>80</v>
       </c>
@@ -8515,18 +8515,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.53515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.53515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.53515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.53515625" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
         <v>34</v>
       </c>
@@ -8551,7 +8551,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="41">
         <v>1</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>-13.63998868</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="41">
         <v>2</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>-13.63998868</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="41">
         <v>3</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="41">
         <v>4</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="35">
         <v>5</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="35">
         <v>6</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="35">
         <v>7</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="35">
         <v>8</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="35">
         <v>9</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="35">
         <v>10</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="35">
         <v>11</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="35">
         <v>12</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <v>13</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <v>14</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <v>15</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <v>16</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="41">
         <v>17</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="41">
         <v>18</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <v>19</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="41">
         <v>20</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="35">
         <v>21</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="35">
         <v>22</v>
       </c>
@@ -9055,18 +9055,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.53515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.53515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.53515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.53515625" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
         <v>34</v>
       </c>
@@ -9091,7 +9091,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="35">
         <v>1</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>-13.63998868</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="35">
         <v>2</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>-13.63998868</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="35">
         <v>3</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="35">
         <v>4</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="35">
         <v>5</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="35">
         <v>6</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="41">
         <v>7</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <v>8</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <v>9</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <v>10</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <v>11</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <v>12</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <v>13</v>
       </c>
@@ -9392,7 +9392,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <v>14</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="35">
         <v>15</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="35">
         <v>16</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="35">
         <v>17</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="35">
         <v>18</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="35">
         <v>19</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="35">
         <v>20</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="35">
         <v>21</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="35">
         <v>22</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16">
         <v>23</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="16">
         <v>24</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="47">
         <v>25</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="47">
         <v>26</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="47">
         <v>27</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="47">
         <v>28</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="47">
         <v>29</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="47">
         <v>30</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="47">
         <v>31</v>
       </c>
@@ -9770,7 +9770,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="47">
         <v>32</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="16">
         <v>33</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="16">
         <v>34</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>35</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>36</v>
       </c>
@@ -9875,7 +9875,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>37</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>38</v>
       </c>
@@ -9917,7 +9917,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>39</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>40</v>
       </c>
@@ -9959,7 +9959,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="47">
         <v>41</v>
       </c>
@@ -9980,7 +9980,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="47">
         <v>42</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="47">
         <v>43</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="47">
         <v>44</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="47">
         <v>45</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="47">
         <v>46</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="47">
         <v>47</v>
       </c>
@@ -10106,7 +10106,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="47">
         <v>48</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>49</v>
       </c>
@@ -10148,7 +10148,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>50</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>51</v>
       </c>
@@ -10190,7 +10190,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>52</v>
       </c>
@@ -10211,7 +10211,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>53</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="16">
         <v>54</v>
       </c>
@@ -10253,7 +10253,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="16">
         <v>55</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16">
         <v>56</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="47">
         <v>57</v>
       </c>
@@ -10316,7 +10316,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="47">
         <v>58</v>
       </c>
@@ -10337,7 +10337,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="47">
         <v>59</v>
       </c>
@@ -10358,7 +10358,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="47">
         <v>60</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="47">
         <v>61</v>
       </c>
@@ -10400,7 +10400,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="47">
         <v>62</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="47">
         <v>63</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="47">
         <v>64</v>
       </c>
@@ -10463,7 +10463,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="16">
         <v>65</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="16">
         <v>66</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="16">
         <v>67</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="16">
         <v>68</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="16">
         <v>69</v>
       </c>
@@ -10568,7 +10568,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="16">
         <v>70</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="16">
         <v>71</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="47">
         <v>72</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="47">
         <v>73</v>
       </c>
@@ -10652,7 +10652,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="47">
         <v>74</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="47">
         <v>75</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="47">
         <v>76</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="47">
         <v>77</v>
       </c>
@@ -10736,7 +10736,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="47">
         <v>78</v>
       </c>
@@ -10757,7 +10757,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="47">
         <v>79</v>
       </c>
@@ -10778,7 +10778,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="47">
         <v>80</v>
       </c>
@@ -10811,42 +10811,42 @@
   </sheetPr>
   <dimension ref="A1:AK86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" style="59" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.81640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" style="59" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.53515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.4609375" style="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.84375" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.84375" style="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.84375" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.84375" style="59" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.84375" style="40" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="40" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="59" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.54296875" style="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.54296875" style="136" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.54296875" style="40" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.54296875" style="136" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.54296875" style="40" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.54296875" style="136" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13.54296875" style="40" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.54296875" style="136" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13.54296875" style="40" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.54296875" style="136" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13.54296875" style="40" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.54296875" style="136" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="13.54296875" style="40" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.54296875" style="136" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="13.54296875" style="40" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.54296875" style="136" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="13.54296875" style="40" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.53515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.53515625" style="136" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.53515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.53515625" style="136" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.53515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.53515625" style="136" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13.53515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.53515625" style="136" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13.53515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.53515625" style="136" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13.53515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.53515625" style="136" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="13.53515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.53515625" style="136" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="13.53515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.53515625" style="136" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="13.53515625" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A1" s="70" t="s">
         <v>177</v>
       </c>
@@ -10971,72 +10971,72 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="149" t="s">
         <v>203</v>
       </c>
       <c r="C2" s="147"/>
       <c r="D2" s="148"/>
-      <c r="E2" s="146" t="s">
+      <c r="E2" s="149" t="s">
         <v>204</v>
       </c>
       <c r="F2" s="147"/>
       <c r="G2" s="148"/>
-      <c r="H2" s="146" t="s">
+      <c r="H2" s="149" t="s">
         <v>205</v>
       </c>
       <c r="I2" s="147"/>
       <c r="J2" s="148"/>
-      <c r="K2" s="146" t="s">
+      <c r="K2" s="149" t="s">
         <v>206</v>
       </c>
       <c r="L2" s="147"/>
       <c r="M2" s="148"/>
-      <c r="N2" s="149" t="s">
+      <c r="N2" s="146" t="s">
         <v>207</v>
       </c>
       <c r="O2" s="147"/>
       <c r="P2" s="148"/>
-      <c r="Q2" s="149" t="s">
+      <c r="Q2" s="146" t="s">
         <v>208</v>
       </c>
       <c r="R2" s="147"/>
       <c r="S2" s="148"/>
-      <c r="T2" s="149" t="s">
+      <c r="T2" s="146" t="s">
         <v>209</v>
       </c>
       <c r="U2" s="147"/>
       <c r="V2" s="148"/>
-      <c r="W2" s="149" t="s">
+      <c r="W2" s="146" t="s">
         <v>210</v>
       </c>
       <c r="X2" s="147"/>
       <c r="Y2" s="148"/>
-      <c r="Z2" s="149" t="s">
+      <c r="Z2" s="146" t="s">
         <v>211</v>
       </c>
       <c r="AA2" s="147"/>
       <c r="AB2" s="148"/>
-      <c r="AC2" s="149" t="s">
+      <c r="AC2" s="146" t="s">
         <v>212</v>
       </c>
       <c r="AD2" s="147"/>
       <c r="AE2" s="148"/>
-      <c r="AF2" s="149" t="s">
+      <c r="AF2" s="146" t="s">
         <v>213</v>
       </c>
       <c r="AG2" s="147"/>
       <c r="AH2" s="148"/>
-      <c r="AI2" s="149" t="s">
+      <c r="AI2" s="146" t="s">
         <v>13</v>
       </c>
       <c r="AJ2" s="147"/>
       <c r="AK2" s="148"/>
     </row>
-    <row r="3" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="70" t="s">
         <v>214</v>
       </c>
@@ -11149,7 +11149,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="70">
         <v>1</v>
       </c>
@@ -11286,7 +11286,7 @@
         <v>-6.9484887265345088E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="70">
         <v>2</v>
       </c>
@@ -11423,7 +11423,7 @@
         <v>-5.7202714392348641E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="70">
         <v>3</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>-3.7947790313694336E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="70">
         <v>4</v>
       </c>
@@ -11697,7 +11697,7 @@
         <v>-1.6226766320790054E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="70">
         <v>5</v>
       </c>
@@ -11834,7 +11834,7 @@
         <v>7.4102205066960206E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="70">
         <v>6</v>
       </c>
@@ -11935,7 +11935,7 @@
         <v>1.7542131820000026</v>
       </c>
       <c r="AB9" s="123">
-        <v>0.1245881661817807</v>
+        <v>8.1198159000000006E-2</v>
       </c>
       <c r="AC9" s="124" t="str">
         <f>'Tube J'!G7</f>
@@ -11971,7 +11971,7 @@
         <v>0.47211609295064366</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="70">
         <v>7</v>
       </c>
@@ -12108,7 +12108,7 @@
         <v>1.0724706272750579</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="70">
         <v>8</v>
       </c>
@@ -12245,7 +12245,7 @@
         <v>2.1602358482652542</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="70">
         <v>9</v>
       </c>
@@ -12382,7 +12382,7 @@
         <v>3.3166748376889816</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="70">
         <v>10</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>5.0640553430414315</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="70">
         <v>11</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>7.3258839721952933</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="70">
         <v>12</v>
       </c>
@@ -12793,7 +12793,7 @@
         <v>7.7819197353001117</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="70">
         <v>13</v>
       </c>
@@ -12930,7 +12930,7 @@
         <v>5.3471643992247877</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="70">
         <v>14</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>2.1806948809969917</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="70">
         <v>15</v>
       </c>
@@ -13204,7 +13204,7 @@
         <v>0.91769504739712815</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="70">
         <v>16</v>
       </c>
@@ -13341,7 +13341,7 @@
         <v>0.477362868347117</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="70">
         <v>17</v>
       </c>
@@ -13478,7 +13478,7 @@
         <v>0.22468247009159451</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="70">
         <v>18</v>
       </c>
@@ -13615,7 +13615,7 @@
         <v>0.13523298436140621</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="70">
         <v>19</v>
       </c>
@@ -13752,7 +13752,7 @@
         <v>0.1129886141201597</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="70">
         <v>20</v>
       </c>
@@ -13853,7 +13853,7 @@
         <v>1.614394540000001</v>
       </c>
       <c r="AB23" s="123">
-        <v>0.11045770021107193</v>
+        <v>7.9996747000000007E-2</v>
       </c>
       <c r="AC23" s="124" t="str">
         <f>'Tube J'!G21</f>
@@ -13889,7 +13889,7 @@
         <v>0.14225145470065845</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="70">
         <v>21</v>
       </c>
@@ -14026,7 +14026,7 @@
         <v>6.8418356658388843E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:37" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="70">
         <v>22</v>
       </c>
@@ -14163,7 +14163,7 @@
         <v>2.7500909911428516E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:37" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B26" s="100"/>
       <c r="C26" s="100" t="s">
         <v>218</v>
@@ -14234,7 +14234,7 @@
       </c>
       <c r="AB26" s="100">
         <f>SUM(AB5:AB25)*40/'Tube Loading'!J37*100</f>
-        <v>49.098093722096166</v>
+        <v>48.999625774905695</v>
       </c>
       <c r="AC26" s="100"/>
       <c r="AD26" s="135" t="s">
@@ -14261,7 +14261,7 @@
         <v>49.053431168755431</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="100"/>
       <c r="C27" s="100"/>
       <c r="D27" s="100"/>
@@ -14275,7 +14275,7 @@
       <c r="L27" s="100"/>
       <c r="M27" s="100"/>
     </row>
-    <row r="28" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="100"/>
       <c r="C28" s="100"/>
       <c r="D28" s="100"/>
@@ -14289,39 +14289,39 @@
       <c r="L28" s="100"/>
       <c r="M28" s="100"/>
     </row>
-    <row r="29" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="70"/>
     </row>
-    <row r="30" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="70"/>
     </row>
-    <row r="31" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="70"/>
     </row>
-    <row r="32" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="100"/>
       <c r="C55" s="100"/>
       <c r="D55" s="100"/>
@@ -14335,39 +14335,39 @@
       <c r="L55" s="100"/>
       <c r="M55" s="100"/>
     </row>
-    <row r="56" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="70"/>
     </row>
-    <row r="57" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="70"/>
     </row>
-    <row r="58" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="70"/>
     </row>
-    <row r="59" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="100"/>
       <c r="C82" s="100"/>
       <c r="D82" s="100"/>
@@ -14381,7 +14381,7 @@
       <c r="L82" s="100"/>
       <c r="M82" s="100"/>
     </row>
-    <row r="83" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B83" s="100"/>
       <c r="C83" s="100"/>
       <c r="D83" s="100"/>
@@ -14395,17 +14395,22 @@
       <c r="L83" s="100"/>
       <c r="M83" s="100"/>
     </row>
-    <row r="84" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="70"/>
     </row>
-    <row r="85" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="70"/>
     </row>
-    <row r="86" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
     <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="AI2:AK2"/>
     <mergeCell ref="Q2:S2"/>
@@ -14413,13 +14418,9 @@
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14432,24 +14433,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.84375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.15234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.53515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.53515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.53515625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="6"/>
       <c r="D2" s="7"/>
       <c r="E2" s="8" t="s">
@@ -14459,7 +14460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -14476,7 +14477,7 @@
         <v>2040000000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -14493,7 +14494,7 @@
         <v>1550000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
@@ -14511,7 +14512,7 @@
         <v>1330000000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
@@ -14528,7 +14529,7 @@
         <v>1220000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
@@ -14546,7 +14547,7 @@
         <v>1170000000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
@@ -14563,7 +14564,7 @@
         <v>1140000000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
@@ -14581,7 +14582,7 @@
         <v>1120000000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>17</v>
       </c>
@@ -14599,7 +14600,7 @@
         <v>1120000000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
@@ -14610,7 +14611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
@@ -14621,7 +14622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>23</v>
       </c>
@@ -14632,7 +14633,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>25</v>
       </c>
@@ -14643,7 +14644,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>27</v>
       </c>
@@ -14655,7 +14656,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
         <v>29</v>
       </c>
@@ -14666,11 +14667,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="10"/>
       <c r="C17" s="12"/>
     </row>
-    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C18" s="20" t="s">
         <v>31</v>
       </c>
@@ -14679,7 +14680,7 @@
         <v>19.166399999999982</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C19" s="20" t="s">
         <v>32</v>
       </c>
@@ -14688,7 +14689,7 @@
         <v>2.1295999999999977</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C20" s="20" t="s">
         <v>33</v>
       </c>
@@ -14697,71 +14698,71 @@
         <v>108.31629022640612</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C22" s="20"/>
       <c r="D22" s="21"/>
     </row>
-    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="20"/>
       <c r="D23" s="21"/>
     </row>
-    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C28" s="12"/>
     </row>
-    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="10"/>
       <c r="C29" s="12"/>
     </row>
-    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="10"/>
       <c r="C30" s="12"/>
     </row>
-    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="10"/>
       <c r="B31" s="15"/>
       <c r="C31" s="12"/>
     </row>
-    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="10"/>
       <c r="C32" s="12"/>
     </row>
-    <row r="33" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="10"/>
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="10"/>
       <c r="C34" s="12"/>
     </row>
-    <row r="35" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="10"/>
       <c r="C35" s="12"/>
     </row>
-    <row r="36" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="10"/>
       <c r="C36" s="12"/>
     </row>
-    <row r="37" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="10"/>
       <c r="B37" s="23"/>
       <c r="C37" s="12"/>
     </row>
-    <row r="38" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="10"/>
       <c r="C38" s="12"/>
     </row>
-    <row r="39" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="10"/>
       <c r="C39" s="12"/>
     </row>
-    <row r="40" spans="1:12" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="24"/>
       <c r="B40" s="6"/>
       <c r="C40" s="25"/>
@@ -14769,70 +14770,70 @@
       <c r="E40" s="6"/>
       <c r="F40" s="26"/>
     </row>
-    <row r="41" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="10"/>
       <c r="C41" s="12"/>
     </row>
-    <row r="42" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="10"/>
       <c r="C42" s="12"/>
     </row>
-    <row r="43" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="10"/>
       <c r="C43" s="12"/>
     </row>
-    <row r="44" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="10"/>
       <c r="C44" s="12"/>
     </row>
-    <row r="45" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="10"/>
       <c r="C45" s="12"/>
     </row>
-    <row r="46" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="10"/>
       <c r="C46" s="20"/>
     </row>
-    <row r="47" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C47" s="20"/>
       <c r="K47" s="27"/>
       <c r="L47" s="27"/>
     </row>
-    <row r="48" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C48" s="20"/>
     </row>
-    <row r="49" spans="2:6" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="6"/>
       <c r="C49" s="28"/>
       <c r="D49" s="7"/>
       <c r="E49" s="6"/>
       <c r="F49" s="26"/>
     </row>
-    <row r="50" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="20"/>
     </row>
-    <row r="51" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D51" s="21"/>
     </row>
-    <row r="52" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C52" s="20"/>
       <c r="D52" s="22"/>
     </row>
-    <row r="53" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C53" s="20"/>
       <c r="D53" s="22"/>
     </row>
-    <row r="54" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="20"/>
       <c r="D54" s="22"/>
     </row>
-    <row r="55" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C55" s="20"/>
     </row>
-    <row r="56" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D56" s="21"/>
     </row>
-    <row r="57" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D57" s="21"/>
     </row>
   </sheetData>
@@ -14851,21 +14852,21 @@
       <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4609375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="65" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="66" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="59" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.54296875" style="60" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" style="59" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.53515625" style="65" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.53515625" style="66" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.53515625" style="59" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.53515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.53515625" style="59" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="57" t="s">
         <v>134</v>
       </c>
@@ -14875,7 +14876,7 @@
       <c r="E1" s="58"/>
       <c r="J1" s="61"/>
     </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>135</v>
       </c>
@@ -14884,7 +14885,7 @@
       <c r="D2" s="63"/>
       <c r="E2" s="64"/>
     </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>136</v>
       </c>
@@ -14893,7 +14894,7 @@
       <c r="D3" s="63"/>
       <c r="E3" s="64"/>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>137</v>
       </c>
@@ -14902,7 +14903,7 @@
       <c r="D4" s="63"/>
       <c r="E4" s="64"/>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>138</v>
       </c>
@@ -14911,7 +14912,7 @@
       <c r="D5" s="63"/>
       <c r="E5" s="64"/>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>139</v>
       </c>
@@ -14920,7 +14921,7 @@
       <c r="D6" s="63"/>
       <c r="E6" s="64"/>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>140</v>
       </c>
@@ -14929,15 +14930,15 @@
       <c r="D7" s="63"/>
       <c r="E7" s="64"/>
     </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="57" t="s">
         <v>142</v>
       </c>
@@ -14952,7 +14953,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="70">
         <v>4</v>
       </c>
@@ -14965,7 +14966,7 @@
         <v>4.9667511782400053</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="71">
         <v>4.05</v>
       </c>
@@ -14978,7 +14979,7 @@
         <v>5.028835567968005</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="71">
         <v>4.0999999999999996</v>
       </c>
@@ -14991,7 +14992,7 @@
         <v>5.0909199576960056</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="71">
         <v>4.1500000000000004</v>
       </c>
@@ -15004,7 +15005,7 @@
         <v>5.1530043474240061</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="71">
         <v>4.2</v>
       </c>
@@ -15017,7 +15018,7 @@
         <v>5.2150887371520058</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="71">
         <v>4.25</v>
       </c>
@@ -15030,7 +15031,7 @@
         <v>5.2771731268800055</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="71">
         <v>4.3</v>
       </c>
@@ -15055,7 +15056,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="71">
         <v>4.3499999999999996</v>
       </c>
@@ -15082,7 +15083,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="71">
         <v>4.4000000000000004</v>
       </c>
@@ -15113,7 +15114,7 @@
       <c r="J21" s="80"/>
       <c r="K21" s="81"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="71">
         <v>4.45</v>
       </c>
@@ -15143,7 +15144,7 @@
       <c r="I22" s="79"/>
       <c r="J22" s="80"/>
     </row>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="82">
         <v>4.5</v>
       </c>
@@ -15174,7 +15175,7 @@
       <c r="I23" s="79"/>
       <c r="J23" s="80"/>
     </row>
-    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="72">
         <v>4.55</v>
       </c>
@@ -15205,7 +15206,7 @@
       <c r="I24" s="79"/>
       <c r="J24" s="80"/>
     </row>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11">
         <v>4.57</v>
       </c>
@@ -15236,7 +15237,7 @@
       <c r="J25" s="80"/>
       <c r="K25" s="88"/>
     </row>
-    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="72">
         <v>4.5999999999999996</v>
       </c>
@@ -15267,12 +15268,12 @@
       <c r="J26" s="80"/>
       <c r="K26" s="81"/>
     </row>
-    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="89"/>
       <c r="B27" s="90"/>
       <c r="C27" s="89"/>
     </row>
-    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="91" t="s">
         <v>150</v>
       </c>
@@ -15304,7 +15305,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>160</v>
       </c>
@@ -15341,7 +15342,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>161</v>
       </c>
@@ -15378,7 +15379,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>162</v>
       </c>
@@ -15415,7 +15416,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>163</v>
       </c>
@@ -15452,7 +15453,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>164</v>
       </c>
@@ -15489,7 +15490,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>165</v>
       </c>
@@ -15526,7 +15527,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>166</v>
       </c>
@@ -15563,7 +15564,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>167</v>
       </c>
@@ -15600,7 +15601,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>168</v>
       </c>
@@ -15637,7 +15638,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>169</v>
       </c>
@@ -15674,7 +15675,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>170</v>
       </c>
@@ -15711,7 +15712,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>171</v>
       </c>
@@ -15748,7 +15749,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>172</v>
       </c>
@@ -15775,7 +15776,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>173</v>
       </c>
@@ -15802,7 +15803,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>174</v>
       </c>
@@ -15829,7 +15830,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>175</v>
       </c>
@@ -15856,7 +15857,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="103" t="s">
         <v>176</v>
       </c>
@@ -15877,28 +15878,28 @@
       <c r="H45" s="101"/>
       <c r="I45" s="101"/>
     </row>
-    <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="100"/>
       <c r="C46" s="71"/>
     </row>
-    <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D47" s="108"/>
       <c r="E47" s="78"/>
     </row>
-    <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E48" s="78"/>
       <c r="F48" s="109"/>
     </row>
-    <row r="49" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E49" s="78"/>
     </row>
-    <row r="50" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="110"/>
       <c r="B50" s="90"/>
       <c r="C50" s="89"/>
     </row>
-    <row r="51" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F52" s="108"/>
     </row>
   </sheetData>
@@ -15916,19 +15917,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.54296875" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.53515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.53515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.53515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.53515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.53515625" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
         <v>34</v>
       </c>
@@ -15953,7 +15954,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="35">
         <v>1</v>
       </c>
@@ -15989,7 +15990,7 @@
         <v>-13.63998868</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="35">
         <v>2</v>
       </c>
@@ -16025,7 +16026,7 @@
         <v>-13.63998868</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="35">
         <v>3</v>
       </c>
@@ -16053,7 +16054,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="35">
         <v>4</v>
       </c>
@@ -16081,7 +16082,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="35">
         <v>5</v>
       </c>
@@ -16106,7 +16107,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="35">
         <v>6</v>
       </c>
@@ -16131,7 +16132,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="35">
         <v>7</v>
       </c>
@@ -16156,7 +16157,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="35">
         <v>8</v>
       </c>
@@ -16181,7 +16182,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="47">
         <v>9</v>
       </c>
@@ -16206,7 +16207,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="47">
         <v>10</v>
       </c>
@@ -16231,7 +16232,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="47">
         <v>11</v>
       </c>
@@ -16256,7 +16257,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="47">
         <v>12</v>
       </c>
@@ -16281,7 +16282,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="47">
         <v>13</v>
       </c>
@@ -16306,7 +16307,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="47">
         <v>14</v>
       </c>
@@ -16331,7 +16332,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="47">
         <v>15</v>
       </c>
@@ -16356,7 +16357,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="47">
         <v>16</v>
       </c>
@@ -16381,7 +16382,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="35">
         <v>17</v>
       </c>
@@ -16406,7 +16407,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="35">
         <v>18</v>
       </c>
@@ -16431,7 +16432,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="35">
         <v>19</v>
       </c>
@@ -16456,7 +16457,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="35">
         <v>20</v>
       </c>
@@ -16481,7 +16482,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="35">
         <v>21</v>
       </c>
@@ -16506,7 +16507,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="35">
         <v>22</v>
       </c>
@@ -16545,19 +16546,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.54296875" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.53515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.53515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.53515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.53515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.53515625" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
         <v>34</v>
       </c>
@@ -16582,7 +16583,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="35">
         <v>1</v>
       </c>
@@ -16618,7 +16619,7 @@
         <v>-13.63998868</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="35">
         <v>2</v>
       </c>
@@ -16654,7 +16655,7 @@
         <v>-13.63998868</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="41">
         <v>3</v>
       </c>
@@ -16682,7 +16683,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="41">
         <v>4</v>
       </c>
@@ -16710,7 +16711,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="41">
         <v>5</v>
       </c>
@@ -16735,7 +16736,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="41">
         <v>6</v>
       </c>
@@ -16760,7 +16761,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="41">
         <v>7</v>
       </c>
@@ -16785,7 +16786,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <v>8</v>
       </c>
@@ -16810,7 +16811,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <v>9</v>
       </c>
@@ -16835,7 +16836,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <v>10</v>
       </c>
@@ -16860,7 +16861,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="35">
         <v>11</v>
       </c>
@@ -16885,7 +16886,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="35">
         <v>12</v>
       </c>
@@ -16910,7 +16911,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="35">
         <v>13</v>
       </c>
@@ -16935,7 +16936,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="35">
         <v>14</v>
       </c>
@@ -16960,7 +16961,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="35">
         <v>15</v>
       </c>
@@ -16985,7 +16986,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="35">
         <v>16</v>
       </c>
@@ -17010,7 +17011,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="35">
         <v>17</v>
       </c>
@@ -17035,7 +17036,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="35">
         <v>18</v>
       </c>
@@ -17060,7 +17061,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <v>19</v>
       </c>
@@ -17085,7 +17086,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="41">
         <v>20</v>
       </c>
@@ -17110,7 +17111,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <v>21</v>
       </c>
@@ -17135,7 +17136,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="41">
         <v>22</v>
       </c>
@@ -17174,19 +17175,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.54296875" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.53515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.53515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.53515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.53515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.53515625" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
         <v>34</v>
       </c>
@@ -17211,7 +17212,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="41">
         <v>1</v>
       </c>
@@ -17247,7 +17248,7 @@
         <v>-13.63998868</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="41">
         <v>2</v>
       </c>
@@ -17283,7 +17284,7 @@
         <v>-13.63998868</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="41">
         <v>3</v>
       </c>
@@ -17311,7 +17312,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="41">
         <v>4</v>
       </c>
@@ -17339,7 +17340,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="35">
         <v>5</v>
       </c>
@@ -17364,7 +17365,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="35">
         <v>6</v>
       </c>
@@ -17389,7 +17390,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="35">
         <v>7</v>
       </c>
@@ -17414,7 +17415,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="35">
         <v>8</v>
       </c>
@@ -17439,7 +17440,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="35">
         <v>9</v>
       </c>
@@ -17464,7 +17465,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="35">
         <v>10</v>
       </c>
@@ -17489,7 +17490,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="35">
         <v>11</v>
       </c>
@@ -17514,7 +17515,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="35">
         <v>12</v>
       </c>
@@ -17539,7 +17540,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <v>13</v>
       </c>
@@ -17564,7 +17565,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <v>14</v>
       </c>
@@ -17589,7 +17590,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <v>15</v>
       </c>
@@ -17614,7 +17615,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <v>16</v>
       </c>
@@ -17639,7 +17640,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="41">
         <v>17</v>
       </c>
@@ -17664,7 +17665,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="41">
         <v>18</v>
       </c>
@@ -17689,7 +17690,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <v>19</v>
       </c>
@@ -17714,7 +17715,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="41">
         <v>20</v>
       </c>
@@ -17739,7 +17740,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="35">
         <v>21</v>
       </c>
@@ -17764,7 +17765,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="35">
         <v>22</v>
       </c>
@@ -17803,20 +17804,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.53515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.53515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.53515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.53515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.53515625" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
         <v>34</v>
       </c>
@@ -17841,7 +17842,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="35">
         <v>1</v>
       </c>
@@ -17877,7 +17878,7 @@
         <v>-13.63998868</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="35">
         <v>2</v>
       </c>
@@ -17913,7 +17914,7 @@
         <v>-13.63998868</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="35">
         <v>3</v>
       </c>
@@ -17941,7 +17942,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="35">
         <v>4</v>
       </c>
@@ -17969,7 +17970,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="35">
         <v>5</v>
       </c>
@@ -17994,7 +17995,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="35">
         <v>6</v>
       </c>
@@ -18019,7 +18020,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="41">
         <v>7</v>
       </c>
@@ -18044,7 +18045,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <v>8</v>
       </c>
@@ -18069,7 +18070,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <v>9</v>
       </c>
@@ -18094,7 +18095,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <v>10</v>
       </c>
@@ -18119,7 +18120,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <v>11</v>
       </c>
@@ -18144,7 +18145,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <v>12</v>
       </c>
@@ -18169,7 +18170,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <v>13</v>
       </c>
@@ -18194,7 +18195,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <v>14</v>
       </c>
@@ -18219,7 +18220,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="35">
         <v>15</v>
       </c>
@@ -18244,7 +18245,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="35">
         <v>16</v>
       </c>
@@ -18269,7 +18270,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="35">
         <v>17</v>
       </c>
@@ -18294,7 +18295,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="35">
         <v>18</v>
       </c>
@@ -18319,7 +18320,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="35">
         <v>19</v>
       </c>
@@ -18344,7 +18345,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="35">
         <v>20</v>
       </c>
@@ -18369,7 +18370,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="35">
         <v>21</v>
       </c>
@@ -18394,7 +18395,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="35">
         <v>22</v>
       </c>
@@ -18431,19 +18432,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.54296875" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.53515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.53515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.53515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.53515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.53515625" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
         <v>34</v>
       </c>
@@ -18468,7 +18469,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="35">
         <v>1</v>
       </c>
@@ -18504,7 +18505,7 @@
         <v>-13.63998868</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="35">
         <v>2</v>
       </c>
@@ -18540,7 +18541,7 @@
         <v>-13.63998868</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="35">
         <v>3</v>
       </c>
@@ -18568,7 +18569,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="35">
         <v>4</v>
       </c>
@@ -18596,7 +18597,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="35">
         <v>5</v>
       </c>
@@ -18621,7 +18622,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="35">
         <v>6</v>
       </c>
@@ -18646,7 +18647,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="35">
         <v>7</v>
       </c>
@@ -18671,7 +18672,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="35">
         <v>8</v>
       </c>
@@ -18696,7 +18697,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="47">
         <v>9</v>
       </c>
@@ -18721,7 +18722,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="47">
         <v>10</v>
       </c>
@@ -18746,7 +18747,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="47">
         <v>11</v>
       </c>
@@ -18771,7 +18772,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="47">
         <v>12</v>
       </c>
@@ -18796,7 +18797,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="47">
         <v>13</v>
       </c>
@@ -18821,7 +18822,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="47">
         <v>14</v>
       </c>
@@ -18846,7 +18847,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="47">
         <v>15</v>
       </c>
@@ -18871,7 +18872,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="47">
         <v>16</v>
       </c>
@@ -18896,7 +18897,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="35">
         <v>17</v>
       </c>
@@ -18921,7 +18922,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="35">
         <v>18</v>
       </c>
@@ -18946,7 +18947,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="35">
         <v>19</v>
       </c>
@@ -18971,7 +18972,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="35">
         <v>20</v>
       </c>
@@ -18996,7 +18997,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="35">
         <v>21</v>
       </c>
@@ -19021,7 +19022,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="35">
         <v>22</v>
       </c>
@@ -19060,20 +19061,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.53515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.53515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.53515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.53515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.53515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.53515625" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
         <v>34</v>
       </c>
@@ -19098,7 +19099,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="35">
         <v>1</v>
       </c>
@@ -19134,7 +19135,7 @@
         <v>-13.63998868</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="35">
         <v>2</v>
       </c>
@@ -19170,7 +19171,7 @@
         <v>-13.63998868</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="41">
         <v>3</v>
       </c>
@@ -19198,7 +19199,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="41">
         <v>4</v>
       </c>
@@ -19226,7 +19227,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="41">
         <v>5</v>
       </c>
@@ -19251,7 +19252,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="41">
         <v>6</v>
       </c>
@@ -19276,7 +19277,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="41">
         <v>7</v>
       </c>
@@ -19301,7 +19302,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <v>8</v>
       </c>
@@ -19326,7 +19327,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <v>9</v>
       </c>
@@ -19351,7 +19352,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <v>10</v>
       </c>
@@ -19376,7 +19377,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="35">
         <v>11</v>
       </c>
@@ -19401,7 +19402,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="35">
         <v>12</v>
       </c>
@@ -19426,7 +19427,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="35">
         <v>13</v>
       </c>
@@ -19451,7 +19452,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="35">
         <v>14</v>
       </c>
@@ -19476,7 +19477,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="35">
         <v>15</v>
       </c>
@@ -19501,7 +19502,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="35">
         <v>16</v>
       </c>
@@ -19526,7 +19527,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="35">
         <v>17</v>
       </c>
@@ -19551,7 +19552,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="35">
         <v>18</v>
       </c>
@@ -19576,7 +19577,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <v>19</v>
       </c>
@@ -19601,7 +19602,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="41">
         <v>20</v>
       </c>
@@ -19626,7 +19627,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <v>21</v>
       </c>
@@ -19651,7 +19652,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="41">
         <v>22</v>
       </c>
